--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-04_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-04_beg.xlsx
@@ -1552,7 +1552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  (Mouthing the word "diu").
+    <t xml:space="preserve">[name="Swire"]  (Mouthing the word 'diu').
 </t>
   </si>
   <si>
